--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20499,7 +20499,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F617" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="G617" s="1" t="n">
         <x:v>41</x:v>
@@ -20511,7 +20511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">
@@ -20563,7 +20563,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="F619" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G619" s="1" t="n">
         <x:v>165</x:v>
@@ -20575,7 +20575,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J619" s="0" t="n">
-        <x:v>587</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="620" spans="1:10">
@@ -28368,13 +28368,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>548</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>195</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>2435</x:v>
+        <x:v>2436</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28400,13 +28400,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>741</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>1213</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>230</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>3225</x:v>
+        <x:v>3226</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28563,7 +28563,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="F869" s="1" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="G869" s="1" t="n">
         <x:v>99</x:v>
@@ -28575,7 +28575,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J869" s="0" t="n">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
     </x:row>
     <x:row r="870" spans="1:10">
@@ -28595,7 +28595,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
         <x:v>167</x:v>
@@ -28607,7 +28607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J870" s="0" t="n">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
     </x:row>
     <x:row r="871" spans="1:10">
@@ -28691,7 +28691,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F873" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G873" s="1" t="n">
         <x:v>6</x:v>
@@ -28703,7 +28703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J873" s="0" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="874" spans="1:10">
@@ -28755,7 +28755,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F875" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G875" s="1" t="n">
         <x:v>26</x:v>
@@ -28767,7 +28767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J875" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="876" spans="1:10">
@@ -28944,10 +28944,10 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>561</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
         <x:v>427</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J881" s="0" t="n">
-        <x:v>1746</x:v>
+        <x:v>1749</x:v>
       </x:c>
     </x:row>
     <x:row r="882" spans="1:10">
@@ -28976,7 +28976,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>499</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
         <x:v>804</x:v>
@@ -28985,13 +28985,13 @@
         <x:v>555</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="I882" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J882" s="0" t="n">
-        <x:v>2307</x:v>
+        <x:v>2310</x:v>
       </x:c>
     </x:row>
     <x:row r="883" spans="1:10">
@@ -29008,22 +29008,22 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
-        <x:v>1365</x:v>
+        <x:v>1367</x:v>
       </x:c>
       <x:c r="G883" s="1" t="n">
         <x:v>982</x:v>
       </x:c>
       <x:c r="H883" s="1" t="n">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="I883" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>4053</x:v>
+        <x:v>4059</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -43411,7 +43411,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1333" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G1333" s="1" t="n">
         <x:v>35</x:v>
@@ -43423,7 +43423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1333" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="1334" spans="1:10">
@@ -43443,7 +43443,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="F1334" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G1334" s="1" t="n">
         <x:v>45</x:v>
@@ -43455,7 +43455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1334" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="1335" spans="1:10">
@@ -80432,7 +80432,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2490" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2490" s="1" t="n">
         <x:v>8</x:v>
@@ -80447,7 +80447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2490" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="2491" spans="1:10">
@@ -80464,7 +80464,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E2491" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F2491" s="1" t="n">
         <x:v>11</x:v>
@@ -80479,7 +80479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2491" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="2492" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -26608,7 +26608,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E808" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F808" s="1" t="n">
         <x:v>29</x:v>
@@ -26623,7 +26623,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J808" s="0" t="n">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="809" spans="1:10">
@@ -26640,7 +26640,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E809" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F809" s="1" t="n">
         <x:v>36</x:v>
@@ -26655,7 +26655,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J809" s="0" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="810" spans="1:10">
@@ -28051,7 +28051,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="F853" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
         <x:v>39</x:v>
@@ -28063,7 +28063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28115,7 +28115,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
         <x:v>144</x:v>
@@ -28127,7 +28127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J855" s="0" t="n">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="856" spans="1:10">
@@ -29558,7 +29558,7 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="H900" s="1" t="n">
         <x:v>35</x:v>
@@ -29567,7 +29567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J900" s="0" t="n">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row r="901" spans="1:10">
@@ -29590,7 +29590,7 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="H901" s="1" t="n">
         <x:v>39</x:v>
@@ -29599,7 +29599,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J901" s="0" t="n">
-        <x:v>800</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="902" spans="1:10">
@@ -66585,13 +66585,13 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="H2057" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I2057" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2057" s="0" t="n">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="2058" spans="1:10">
@@ -66649,13 +66649,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="H2059" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I2059" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2059" s="0" t="n">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="2060" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2867,7 +2867,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F66" s="1" t="n">
-        <x:v>235</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="n">
         <x:v>226</x:v>
@@ -2879,7 +2879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>731</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
@@ -2899,7 +2899,7 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
         <x:v>361</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1236</x:v>
+        <x:v>1235</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20537,13 +20537,13 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="H618" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I618" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J618" s="0" t="n">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="619" spans="1:10">
@@ -20569,13 +20569,13 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="H619" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I619" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J619" s="0" t="n">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
     <x:row r="620" spans="1:10">
@@ -53110,7 +53110,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="H1636" s="1" t="n">
         <x:v>45</x:v>
@@ -53119,7 +53119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -53142,7 +53142,7 @@
         <x:v>205</x:v>
       </x:c>
       <x:c r="G1637" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="H1637" s="1" t="n">
         <x:v>71</x:v>
@@ -53151,7 +53151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1637" s="0" t="n">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
     </x:row>
     <x:row r="1638" spans="1:10">
@@ -70771,7 +70771,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2188" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2188" s="1" t="n">
         <x:v>11</x:v>
@@ -70783,7 +70783,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2188" s="0" t="n">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="2189" spans="1:10">
@@ -70803,7 +70803,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F2189" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2189" s="1" t="n">
         <x:v>12</x:v>
@@ -70815,7 +70815,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2189" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2190" spans="1:10">
@@ -81232,7 +81232,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2515" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2515" s="1" t="n">
         <x:v>0</x:v>
@@ -81247,7 +81247,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2515" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2516" spans="1:10">
@@ -81264,7 +81264,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2516" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F2516" s="1" t="n">
         <x:v>0</x:v>
@@ -81279,7 +81279,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2516" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2517" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9520,7 +9520,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E274" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F274" s="1" t="n">
         <x:v>6</x:v>
@@ -9535,7 +9535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J274" s="0" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:10">
@@ -9552,7 +9552,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E275" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F275" s="1" t="n">
         <x:v>6</x:v>
@@ -9567,7 +9567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J275" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:10">
@@ -28368,7 +28368,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>547</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>887</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>2436</x:v>
+        <x:v>2435</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28400,7 +28400,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>740</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
         <x:v>1214</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>3226</x:v>
+        <x:v>3225</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -71411,7 +71411,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="F2208" s="1" t="n">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="G2208" s="1" t="n">
         <x:v>127</x:v>
@@ -71423,7 +71423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2208" s="0" t="n">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="2209" spans="1:10">
@@ -71443,7 +71443,7 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="F2209" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="G2209" s="1" t="n">
         <x:v>169</x:v>
@@ -71455,7 +71455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2209" s="0" t="n">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="2210" spans="1:10">
@@ -79606,7 +79606,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2464" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2464" s="1" t="n">
         <x:v>0</x:v>
@@ -79615,7 +79615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2464" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2465" spans="1:10">
@@ -79670,7 +79670,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2466" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2466" s="1" t="n">
         <x:v>1</x:v>
@@ -79679,7 +79679,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2466" s="0" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2467" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2835,10 +2835,10 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F65" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
         <x:v>66</x:v>
@@ -2847,7 +2847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>505</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
@@ -2899,10 +2899,10 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
         <x:v>134</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1235</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
@@ -28083,7 +28083,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G854" s="1" t="n">
         <x:v>105</x:v>
@@ -28095,7 +28095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J854" s="0" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="855" spans="1:10">
@@ -28115,7 +28115,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G855" s="1" t="n">
         <x:v>144</x:v>
@@ -28127,7 +28127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J855" s="0" t="n">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="856" spans="1:10">
@@ -29523,7 +29523,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F899" s="1" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
         <x:v>47</x:v>
@@ -29535,7 +29535,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J899" s="0" t="n">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
     </x:row>
     <x:row r="900" spans="1:10">
@@ -29587,7 +29587,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="G901" s="1" t="n">
         <x:v>220</x:v>
@@ -29599,7 +29599,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J901" s="0" t="n">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
     </x:row>
     <x:row r="902" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>145</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>133</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>452</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>207</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>182</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>628</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -3280,7 +3280,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E79" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F79" s="1" t="n">
         <x:v>2</x:v>
@@ -3295,7 +3295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J79" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10">
@@ -3344,7 +3344,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="E81" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F81" s="1" t="n">
         <x:v>24</x:v>
@@ -3359,7 +3359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J81" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:10">
@@ -80979,7 +80979,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2507" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G2507" s="1" t="n">
         <x:v>37</x:v>
@@ -80991,7 +80991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2507" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="2508" spans="1:10">
@@ -81011,7 +81011,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="F2508" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G2508" s="1" t="n">
         <x:v>58</x:v>
@@ -81023,7 +81023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2508" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="2509" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2230,7 +2230,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G46" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="H46" s="1" t="n">
         <x:v>1</x:v>
@@ -2239,7 +2239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J46" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:10">
@@ -2256,7 +2256,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>26</x:v>
@@ -2271,7 +2271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2288,13 +2288,13 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
         <x:v>34</x:v>
       </x:c>
       <x:c r="G48" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H48" s="1" t="n">
         <x:v>5</x:v>
@@ -2303,7 +2303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2579,7 +2579,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F57" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G57" s="1" t="n">
         <x:v>36</x:v>
@@ -2591,7 +2591,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J57" s="0" t="n">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:10">
@@ -2643,7 +2643,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F59" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="G59" s="1" t="n">
         <x:v>90</x:v>
@@ -2655,7 +2655,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J59" s="0" t="n">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:10">
@@ -2870,7 +2870,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H66" s="1" t="n">
         <x:v>68</x:v>
@@ -2879,7 +2879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
@@ -2902,7 +2902,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
         <x:v>134</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1237</x:v>
+        <x:v>1238</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -21008,7 +21008,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="E633" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="F633" s="1" t="n">
         <x:v>118</x:v>
@@ -21023,7 +21023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">
@@ -21040,7 +21040,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E634" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="F634" s="1" t="n">
         <x:v>196</x:v>
@@ -21055,7 +21055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J634" s="0" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="635" spans="1:10">
@@ -21072,7 +21072,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E635" s="1" t="n">
-        <x:v>176</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F635" s="1" t="n">
         <x:v>314</x:v>
@@ -21087,7 +21087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J635" s="0" t="n">
-        <x:v>930</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="636" spans="1:10">
@@ -60845,7 +60845,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1878" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E1878" s="1" t="n">
         <x:v>31</x:v>
@@ -60863,7 +60863,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1878" s="0" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="1879" spans="1:10">
@@ -60877,7 +60877,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1879" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E1879" s="1" t="n">
         <x:v>40</x:v>
@@ -60895,7 +60895,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1879" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="1880" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -21107,7 +21107,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F636" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G636" s="1" t="n">
         <x:v>3</x:v>
@@ -21119,7 +21119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J636" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="637" spans="1:10">
@@ -21171,7 +21171,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F638" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G638" s="1" t="n">
         <x:v>11</x:v>
@@ -21183,7 +21183,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J638" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="639" spans="1:10">
@@ -59987,7 +59987,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="F1851" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G1851" s="1" t="n">
         <x:v>246</x:v>
@@ -59999,7 +59999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1851" s="0" t="n">
-        <x:v>852</x:v>
+        <x:v>851</x:v>
       </x:c>
     </x:row>
     <x:row r="1852" spans="1:10">
@@ -60019,7 +60019,7 @@
         <x:v>203</x:v>
       </x:c>
       <x:c r="F1852" s="1" t="n">
-        <x:v>420</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="G1852" s="1" t="n">
         <x:v>309</x:v>
@@ -60031,7 +60031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1852" s="0" t="n">
-        <x:v>1070</x:v>
+        <x:v>1069</x:v>
       </x:c>
     </x:row>
     <x:row r="1853" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20950,7 +20950,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="G631" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H631" s="1" t="n">
         <x:v>25</x:v>
@@ -20959,7 +20959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J631" s="0" t="n">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:10">
@@ -21014,7 +21014,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="G633" s="1" t="n">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="H633" s="1" t="n">
         <x:v>85</x:v>
@@ -21023,7 +21023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">
@@ -21430,7 +21430,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="G646" s="1" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H646" s="1" t="n">
         <x:v>3</x:v>
@@ -21439,7 +21439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J646" s="0" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:10">
@@ -21462,7 +21462,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="G647" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H647" s="1" t="n">
         <x:v>4</x:v>
@@ -21471,7 +21471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J647" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="648" spans="1:10">
@@ -28275,7 +28275,7 @@
         <x:v>193</x:v>
       </x:c>
       <x:c r="F860" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="G860" s="1" t="n">
         <x:v>219</x:v>
@@ -28287,7 +28287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J860" s="0" t="n">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
     </x:row>
     <x:row r="861" spans="1:10">
@@ -28307,10 +28307,10 @@
         <x:v>546</x:v>
       </x:c>
       <x:c r="F861" s="1" t="n">
-        <x:v>887</x:v>
+        <x:v>888</x:v>
       </x:c>
       <x:c r="G861" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
         <x:v>195</x:v>
@@ -28319,7 +28319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>2435</x:v>
+        <x:v>2437</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28339,10 +28339,10 @@
         <x:v>739</x:v>
       </x:c>
       <x:c r="F862" s="1" t="n">
-        <x:v>1214</x:v>
+        <x:v>1216</x:v>
       </x:c>
       <x:c r="G862" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>949</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
         <x:v>230</x:v>
@@ -28351,7 +28351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J862" s="0" t="n">
-        <x:v>3225</x:v>
+        <x:v>3228</x:v>
       </x:c>
     </x:row>
     <x:row r="863" spans="1:10">
@@ -28915,7 +28915,7 @@
         <x:v>501</x:v>
       </x:c>
       <x:c r="F880" s="1" t="n">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="G880" s="1" t="n">
         <x:v>555</x:v>
@@ -28927,7 +28927,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J880" s="0" t="n">
-        <x:v>2310</x:v>
+        <x:v>2311</x:v>
       </x:c>
     </x:row>
     <x:row r="881" spans="1:10">
@@ -28947,7 +28947,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
-        <x:v>1367</x:v>
+        <x:v>1368</x:v>
       </x:c>
       <x:c r="G881" s="1" t="n">
         <x:v>982</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J881" s="0" t="n">
-        <x:v>4059</x:v>
+        <x:v>4060</x:v>
       </x:c>
     </x:row>
     <x:row r="882" spans="1:10">
@@ -69718,7 +69718,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="G2155" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="H2155" s="1" t="n">
         <x:v>35</x:v>
@@ -69727,7 +69727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2155" s="0" t="n">
-        <x:v>351</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="2156" spans="1:10">
@@ -69750,7 +69750,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="G2156" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H2156" s="1" t="n">
         <x:v>43</x:v>
@@ -69759,7 +69759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2156" s="0" t="n">
-        <x:v>488</x:v>
+        <x:v>487</x:v>
       </x:c>
     </x:row>
     <x:row r="2157" spans="1:10">
@@ -81657,13 +81657,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H2528" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I2528" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2528" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2529" spans="1:10">
@@ -81721,13 +81721,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H2530" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I2530" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2530" s="0" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="2531" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1942,7 +1942,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G37" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
         <x:v>11</x:v>
@@ -1951,7 +1951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>177</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -1968,7 +1968,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>137</x:v>
@@ -1983,7 +1983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>550</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -2000,13 +2000,13 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>180</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>197</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>91</x:v>
@@ -2015,7 +2015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>727</x:v>
+        <x:v>725</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -27897,13 +27897,13 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="H848" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="I848" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J848" s="0" t="n">
-        <x:v>903</x:v>
+        <x:v>904</x:v>
       </x:c>
     </x:row>
     <x:row r="849" spans="1:10">
@@ -27961,13 +27961,13 @@
         <x:v>1143</x:v>
       </x:c>
       <x:c r="H850" s="1" t="n">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="I850" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J850" s="0" t="n">
-        <x:v>4006</x:v>
+        <x:v>4007</x:v>
       </x:c>
     </x:row>
     <x:row r="851" spans="1:10">
@@ -28880,7 +28880,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="E879" s="1" t="n">
-        <x:v>451</x:v>
+        <x:v>449</x:v>
       </x:c>
       <x:c r="F879" s="1" t="n">
         <x:v>563</x:v>
@@ -28895,7 +28895,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J879" s="0" t="n">
-        <x:v>1749</x:v>
+        <x:v>1747</x:v>
       </x:c>
     </x:row>
     <x:row r="880" spans="1:10">
@@ -28944,7 +28944,7 @@
         <x:v>317</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
-        <x:v>952</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="F881" s="1" t="n">
         <x:v>1368</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J881" s="0" t="n">
-        <x:v>4060</x:v>
+        <x:v>4058</x:v>
       </x:c>
     </x:row>
     <x:row r="882" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2256,7 +2256,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>26</x:v>
@@ -2271,7 +2271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2288,7 +2288,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
         <x:v>34</x:v>
@@ -2303,7 +2303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -21334,7 +21334,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G643" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H643" s="1" t="n">
         <x:v>7</x:v>
@@ -21343,7 +21343,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J643" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="644" spans="1:10">
@@ -21366,7 +21366,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="G644" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H644" s="1" t="n">
         <x:v>7</x:v>
@@ -21375,7 +21375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J644" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="645" spans="1:10">
@@ -28368,7 +28368,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>546</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>888</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>2437</x:v>
+        <x:v>2436</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28400,7 +28400,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>739</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
         <x:v>1216</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>3228</x:v>
+        <x:v>3227</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -72976,7 +72976,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2257" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2257" s="1" t="n">
         <x:v>6</x:v>
@@ -72991,7 +72991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2257" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2258" spans="1:10">
@@ -73040,7 +73040,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2259" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F2259" s="1" t="n">
         <x:v>27</x:v>
@@ -73055,7 +73055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2259" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="2260" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2838,7 +2838,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
         <x:v>66</x:v>
@@ -2847,7 +2847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>507</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
@@ -2902,7 +2902,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>363</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
         <x:v>134</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1238</x:v>
+        <x:v>1237</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
@@ -28371,7 +28371,7 @@
         <x:v>545</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>888</x:v>
+        <x:v>887</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>730</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>2436</x:v>
+        <x:v>2435</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,7 +28403,7 @@
         <x:v>738</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>1216</x:v>
+        <x:v>1215</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>949</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>3227</x:v>
+        <x:v>3226</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -29459,7 +29459,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F897" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G897" s="1" t="n">
         <x:v>71</x:v>
@@ -29471,7 +29471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J897" s="0" t="n">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="898" spans="1:10">
@@ -29491,7 +29491,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="F898" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
         <x:v>72</x:v>
@@ -29503,7 +29503,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J898" s="0" t="n">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="899" spans="1:10">
@@ -31405,7 +31405,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D958" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E958" s="1" t="n">
         <x:v>0</x:v>
@@ -31423,7 +31423,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J958" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="959" spans="1:10">
@@ -31437,7 +31437,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D959" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E959" s="1" t="n">
         <x:v>0</x:v>
@@ -31455,7 +31455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J959" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="960" spans="1:10">
@@ -75987,7 +75987,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F2351" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2351" s="1" t="n">
         <x:v>11</x:v>
@@ -75999,7 +75999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2351" s="0" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="2352" spans="1:10">
@@ -76019,7 +76019,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="F2352" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2352" s="1" t="n">
         <x:v>20</x:v>
@@ -76031,7 +76031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2352" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="2353" spans="1:10">
@@ -76051,7 +76051,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F2353" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="G2353" s="1" t="n">
         <x:v>31</x:v>
@@ -76063,7 +76063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2353" s="0" t="n">
-        <x:v>117</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="2354" spans="1:10">
@@ -76403,7 +76403,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2364" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2364" s="1" t="n">
         <x:v>2</x:v>
@@ -76415,7 +76415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2364" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2365" spans="1:10">
@@ -76435,7 +76435,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F2365" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G2365" s="1" t="n">
         <x:v>2</x:v>
@@ -76447,7 +76447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2365" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2366" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2870,7 +2870,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="G66" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="H66" s="1" t="n">
         <x:v>68</x:v>
@@ -2879,7 +2879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>731</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
@@ -2902,7 +2902,7 @@
         <x:v>389</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>362</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
         <x:v>134</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1237</x:v>
+        <x:v>1236</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
@@ -39987,7 +39987,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="F1226" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1226" s="1" t="n">
         <x:v>3</x:v>
@@ -39999,7 +39999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1226" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="1227" spans="1:10">
@@ -40022,7 +40022,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="G1227" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H1227" s="1" t="n">
         <x:v>7</x:v>
@@ -40031,7 +40031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1227" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="1228" spans="1:10">
@@ -40051,10 +40051,10 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="F1228" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G1228" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1228" s="1" t="n">
         <x:v>10</x:v>
@@ -40063,7 +40063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1228" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="1229" spans="1:10">
@@ -67571,7 +67571,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="F2088" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G2088" s="1" t="n">
         <x:v>18</x:v>
@@ -67583,7 +67583,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2088" s="0" t="n">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="2089" spans="1:10">
@@ -67635,7 +67635,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F2090" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G2090" s="1" t="n">
         <x:v>85</x:v>
@@ -67647,7 +67647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2090" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="2091" spans="1:10">
@@ -79766,7 +79766,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G2469" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2469" s="1" t="n">
         <x:v>2</x:v>
@@ -79775,7 +79775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2469" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2470" spans="1:10">
@@ -79830,7 +79830,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="G2471" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H2471" s="1" t="n">
         <x:v>4</x:v>
@@ -79839,7 +79839,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2471" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="2472" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28077,7 +28077,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D854" s="1" t="n">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
         <x:v>56</x:v>
@@ -28095,7 +28095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J854" s="0" t="n">
-        <x:v>363</x:v>
+        <x:v>362</x:v>
       </x:c>
     </x:row>
     <x:row r="855" spans="1:10">
@@ -28109,7 +28109,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D855" s="1" t="n">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
         <x:v>64</x:v>
@@ -28127,7 +28127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J855" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="856" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28941,7 +28941,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D881" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="E881" s="1" t="n">
         <x:v>449</x:v>
@@ -28959,7 +28959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J881" s="0" t="n">
-        <x:v>1747</x:v>
+        <x:v>1748</x:v>
       </x:c>
     </x:row>
     <x:row r="882" spans="1:10">
@@ -29005,7 +29005,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D883" s="1" t="n">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
         <x:v>950</x:v>
@@ -29023,7 +29023,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>4058</x:v>
+        <x:v>4059</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20624,7 +20624,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E621" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F621" s="1" t="n">
         <x:v>45</x:v>
@@ -20639,7 +20639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J621" s="0" t="n">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="622" spans="1:10">
@@ -20688,7 +20688,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E623" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F623" s="1" t="n">
         <x:v>87</x:v>
@@ -20703,7 +20703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J623" s="0" t="n">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:10">
@@ -21069,7 +21069,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D635" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E635" s="1" t="n">
         <x:v>2</x:v>
@@ -21087,7 +21087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J635" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="636" spans="1:10">
@@ -21101,7 +21101,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D636" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E636" s="1" t="n">
         <x:v>7</x:v>
@@ -21119,7 +21119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J636" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="637" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -29654,7 +29654,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="G903" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H903" s="1" t="n">
         <x:v>41</x:v>
@@ -29663,7 +29663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J903" s="0" t="n">
-        <x:v>901</x:v>
+        <x:v>902</x:v>
       </x:c>
     </x:row>
     <x:row r="904" spans="1:10">
@@ -29686,7 +29686,7 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
         <x:v>45</x:v>
@@ -29695,7 +29695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J904" s="0" t="n">
-        <x:v>987</x:v>
+        <x:v>988</x:v>
       </x:c>
     </x:row>
     <x:row r="905" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -16147,7 +16147,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="F481" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G481" s="1" t="n">
         <x:v>22</x:v>
@@ -16159,7 +16159,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J481" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="482" spans="1:10">
@@ -16179,10 +16179,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F482" s="1" t="n">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G482" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H482" s="1" t="n">
         <x:v>14</x:v>
@@ -16191,7 +16191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J482" s="0" t="n">
-        <x:v>126</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="483" spans="1:10">
@@ -16211,10 +16211,10 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F483" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G483" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="H483" s="1" t="n">
         <x:v>17</x:v>
@@ -16223,7 +16223,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J483" s="0" t="n">
-        <x:v>195</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="484" spans="1:10">
@@ -19062,7 +19062,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="G572" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="H572" s="1" t="n">
         <x:v>42</x:v>
@@ -19071,7 +19071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J572" s="0" t="n">
-        <x:v>271</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="573" spans="1:10">
@@ -19094,7 +19094,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="G573" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="H573" s="1" t="n">
         <x:v>53</x:v>
@@ -19103,7 +19103,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J573" s="0" t="n">
-        <x:v>406</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="574" spans="1:10">
@@ -19760,7 +19760,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E594" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F594" s="1" t="n">
         <x:v>3</x:v>
@@ -19775,7 +19775,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J594" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="595" spans="1:10">
@@ -19792,7 +19792,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E595" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F595" s="1" t="n">
         <x:v>3</x:v>
@@ -19807,7 +19807,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J595" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="596" spans="1:10">
@@ -28368,13 +28368,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>545</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>887</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>730</x:v>
+        <x:v>729</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>195</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>2435</x:v>
+        <x:v>2433</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28400,13 +28400,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>738</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
         <x:v>1215</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>949</x:v>
+        <x:v>948</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>230</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>3226</x:v>
+        <x:v>3224</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28976,7 +28976,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E882" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
         <x:v>805</x:v>
@@ -28991,7 +28991,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J882" s="0" t="n">
-        <x:v>2311</x:v>
+        <x:v>2312</x:v>
       </x:c>
     </x:row>
     <x:row r="883" spans="1:10">
@@ -29008,7 +29008,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>950</x:v>
+        <x:v>951</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>1368</x:v>
@@ -29023,7 +29023,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>4059</x:v>
+        <x:v>4060</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29465,13 +29465,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="H897" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I897" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J897" s="0" t="n">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="898" spans="1:10">
@@ -29497,13 +29497,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="H898" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="I898" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J898" s="0" t="n">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="899" spans="1:10">
@@ -40656,7 +40656,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1247" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1247" s="1" t="n">
         <x:v>5</x:v>
@@ -40671,7 +40671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1247" s="0" t="n">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="1248" spans="1:10">
@@ -40688,7 +40688,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1248" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F1248" s="1" t="n">
         <x:v>8</x:v>
@@ -40703,7 +40703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1248" s="0" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="1249" spans="1:10">
@@ -65619,7 +65619,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="F2027" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G2027" s="1" t="n">
         <x:v>25</x:v>
@@ -65631,7 +65631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2027" s="0" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="2028" spans="1:10">
@@ -65683,7 +65683,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F2029" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G2029" s="1" t="n">
         <x:v>141</x:v>
@@ -65695,7 +65695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2029" s="0" t="n">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="2030" spans="1:10">
@@ -69907,7 +69907,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F2161" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2161" s="1" t="n">
         <x:v>16</x:v>
@@ -69919,7 +69919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2161" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="2162" spans="1:10">
@@ -69939,7 +69939,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="F2162" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2162" s="1" t="n">
         <x:v>24</x:v>
@@ -69951,7 +69951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2162" s="0" t="n">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="2163" spans="1:10">
@@ -81686,7 +81686,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2529" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2529" s="1" t="n">
         <x:v>4</x:v>
@@ -81695,7 +81695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2529" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2530" spans="1:10">
@@ -81718,7 +81718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G2530" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H2530" s="1" t="n">
         <x:v>4</x:v>
@@ -81727,7 +81727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2530" s="0" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2531" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -27987,7 +27987,7 @@
         <x:v>526</x:v>
       </x:c>
       <x:c r="F851" s="1" t="n">
-        <x:v>1061</x:v>
+        <x:v>1062</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
         <x:v>915</x:v>
@@ -27999,7 +27999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>3103</x:v>
+        <x:v>3104</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28019,7 +28019,7 @@
         <x:v>729</x:v>
       </x:c>
       <x:c r="F852" s="1" t="n">
-        <x:v>1353</x:v>
+        <x:v>1354</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
         <x:v>1143</x:v>
@@ -28031,7 +28031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>4007</x:v>
+        <x:v>4008</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28368,13 +28368,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>544</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>887</x:v>
+        <x:v>886</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>729</x:v>
+        <x:v>728</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>195</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>2433</x:v>
+        <x:v>2430</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28400,13 +28400,13 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>737</x:v>
+        <x:v>736</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>1215</x:v>
+        <x:v>1214</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>948</x:v>
+        <x:v>947</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>230</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>3224</x:v>
+        <x:v>3221</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -60557,7 +60557,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1869" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E1869" s="1" t="n">
         <x:v>25</x:v>
@@ -60575,7 +60575,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1869" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="1870" spans="1:10">
@@ -60589,7 +60589,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1870" s="1" t="n">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E1870" s="1" t="n">
         <x:v>38</x:v>
@@ -60607,7 +60607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1870" s="0" t="n">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="1871" spans="1:10">
@@ -67603,7 +67603,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="F2089" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G2089" s="1" t="n">
         <x:v>67</x:v>
@@ -67615,7 +67615,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2089" s="0" t="n">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="2090" spans="1:10">
@@ -67635,7 +67635,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="F2090" s="1" t="n">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G2090" s="1" t="n">
         <x:v>85</x:v>
@@ -67647,7 +67647,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2090" s="0" t="n">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="2091" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -21622,7 +21622,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G652" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H652" s="1" t="n">
         <x:v>4</x:v>
@@ -21631,7 +21631,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J652" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="653" spans="1:10">
@@ -21654,7 +21654,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G653" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H653" s="1" t="n">
         <x:v>4</x:v>
@@ -21663,7 +21663,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J653" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="654" spans="1:10">
@@ -21718,7 +21718,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H655" s="1" t="n">
         <x:v>0</x:v>
@@ -21727,7 +21727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -21750,7 +21750,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="H656" s="1" t="n">
         <x:v>0</x:v>
@@ -21759,7 +21759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -21942,7 +21942,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G662" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H662" s="1" t="n">
         <x:v>0</x:v>
@@ -21951,7 +21951,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J662" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="663" spans="1:10">
@@ -22006,7 +22006,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G664" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H664" s="1" t="n">
         <x:v>3</x:v>
@@ -22015,7 +22015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J664" s="0" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="665" spans="1:10">
@@ -22131,7 +22131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="F668" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G668" s="1" t="n">
         <x:v>2</x:v>
@@ -22143,7 +22143,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J668" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="669" spans="1:10">
@@ -22163,7 +22163,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F669" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G669" s="1" t="n">
         <x:v>3</x:v>
@@ -22175,7 +22175,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J669" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="670" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28080,7 +28080,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E854" s="1" t="n">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F854" s="1" t="n">
         <x:v>136</x:v>
@@ -28095,7 +28095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J854" s="0" t="n">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="855" spans="1:10">
@@ -28112,7 +28112,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E855" s="1" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="F855" s="1" t="n">
         <x:v>163</x:v>
@@ -28127,7 +28127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J855" s="0" t="n">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="856" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -21069,7 +21069,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D635" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E635" s="1" t="n">
         <x:v>2</x:v>
@@ -21087,7 +21087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J635" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="636" spans="1:10">
@@ -21101,7 +21101,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D636" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E636" s="1" t="n">
         <x:v>7</x:v>
@@ -21119,7 +21119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J636" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="637" spans="1:10">
@@ -21715,7 +21715,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="F655" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G655" s="1" t="n">
         <x:v>2</x:v>
@@ -21727,7 +21727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J655" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="656" spans="1:10">
@@ -21747,7 +21747,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F656" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G656" s="1" t="n">
         <x:v>3</x:v>
@@ -21759,7 +21759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J656" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="657" spans="1:10">
@@ -28403,7 +28403,7 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>886</x:v>
+        <x:v>885</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>728</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2430</x:v>
+        <x:v>2429</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,7 +28435,7 @@
         <x:v>736</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1214</x:v>
+        <x:v>1213</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>947</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3221</x:v>
+        <x:v>3220</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -52246,7 +52246,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="G1609" s="1" t="n">
-        <x:v>140</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="H1609" s="1" t="n">
         <x:v>42</x:v>
@@ -52255,7 +52255,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1609" s="0" t="n">
-        <x:v>451</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="1610" spans="1:10">
@@ -52278,7 +52278,7 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="G1610" s="1" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H1610" s="1" t="n">
         <x:v>52</x:v>
@@ -52287,7 +52287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1610" s="0" t="n">
-        <x:v>594</x:v>
+        <x:v>593</x:v>
       </x:c>
     </x:row>
     <x:row r="1611" spans="1:10">
@@ -52339,7 +52339,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F1612" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G1612" s="1" t="n">
         <x:v>11</x:v>
@@ -52351,7 +52351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1612" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="1613" spans="1:10">
@@ -52371,7 +52371,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1613" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G1613" s="1" t="n">
         <x:v>14</x:v>
@@ -52383,7 +52383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1613" s="0" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="1614" spans="1:10">
@@ -52592,22 +52592,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1620" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F1620" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G1620" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="H1620" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I1620" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>127</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -52624,22 +52624,22 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1621" s="1" t="n">
-        <x:v>108</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
-        <x:v>124</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
-        <x:v>109</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H1621" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="I1621" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>401</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
@@ -52656,22 +52656,22 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E1622" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F1622" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="G1622" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="H1622" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="I1622" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>528</x:v>
+        <x:v>464</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">
@@ -53043,7 +53043,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F1634" s="1" t="n">
-        <x:v>77</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G1634" s="1" t="n">
         <x:v>93</x:v>
@@ -53055,7 +53055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1634" s="0" t="n">
-        <x:v>288</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="1635" spans="1:10">
@@ -53072,10 +53072,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1635" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="F1635" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G1635" s="1" t="n">
         <x:v>110</x:v>
@@ -53087,7 +53087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1635" s="0" t="n">
-        <x:v>405</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="1636" spans="1:10">
@@ -53104,10 +53104,10 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E1636" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="F1636" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
         <x:v>203</x:v>
@@ -53119,7 +53119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>693</x:v>
+        <x:v>690</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -53715,7 +53715,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1655" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1655" s="1" t="n">
         <x:v>9</x:v>
@@ -53727,7 +53727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1655" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="1656" spans="1:10">
@@ -53747,7 +53747,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="F1656" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G1656" s="1" t="n">
         <x:v>10</x:v>
@@ -53759,7 +53759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1656" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="1657" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -86998,7 +86998,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G2695" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2695" s="1" t="n">
         <x:v>3</x:v>
@@ -87007,7 +87007,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2695" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2696" spans="1:10">
@@ -87062,7 +87062,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2697" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H2697" s="1" t="n">
         <x:v>6</x:v>
@@ -87071,7 +87071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2697" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2698" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28409,13 +28409,13 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2429</x:v>
+        <x:v>2428</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28441,13 +28441,13 @@
         <x:v>947</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>230</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3220</x:v>
+        <x:v>3219</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -52403,7 +52403,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1614" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="G1614" s="1" t="n">
         <x:v>3</x:v>
@@ -52415,7 +52415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1614" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="1615" spans="1:10">
@@ -52467,7 +52467,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1616" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G1616" s="1" t="n">
         <x:v>16</x:v>
@@ -52479,7 +52479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1616" s="0" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="1617" spans="1:10">
@@ -53043,7 +53043,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F1634" s="1" t="n">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="G1634" s="1" t="n">
         <x:v>93</x:v>
@@ -53055,7 +53055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1634" s="0" t="n">
-        <x:v>287</x:v>
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="1635" spans="1:10">
@@ -53107,7 +53107,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="F1636" s="1" t="n">
-        <x:v>202</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
         <x:v>203</x:v>
@@ -53119,7 +53119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>690</x:v>
+        <x:v>689</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -64400,7 +64400,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1989" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F1989" s="1" t="n">
         <x:v>2</x:v>
@@ -64415,7 +64415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1989" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1990" spans="1:10">
@@ -64432,7 +64432,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E1990" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F1990" s="1" t="n">
         <x:v>3</x:v>
@@ -64447,7 +64447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1990" s="0" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="1991" spans="1:10">
@@ -77715,7 +77715,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="F2405" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="G2405" s="1" t="n">
         <x:v>9</x:v>
@@ -77727,7 +77727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2405" s="0" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="2406" spans="1:10">
@@ -77747,7 +77747,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F2406" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G2406" s="1" t="n">
         <x:v>11</x:v>
@@ -77759,7 +77759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2406" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="2407" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -8790,7 +8790,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="G251" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H251" s="1" t="n">
         <x:v>3</x:v>
@@ -8799,7 +8799,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J251" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:10">
@@ -8822,7 +8822,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G252" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H252" s="1" t="n">
         <x:v>5</x:v>
@@ -8831,7 +8831,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J252" s="0" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:10">
@@ -28403,7 +28403,7 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>885</x:v>
+        <x:v>884</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>728</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2428</x:v>
+        <x:v>2427</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,7 +28435,7 @@
         <x:v>736</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1213</x:v>
+        <x:v>1212</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>947</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3219</x:v>
+        <x:v>3218</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -73008,7 +73008,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E2258" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F2258" s="1" t="n">
         <x:v>6</x:v>
@@ -73023,7 +73023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2258" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="2259" spans="1:10">
@@ -73072,7 +73072,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E2260" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F2260" s="1" t="n">
         <x:v>27</x:v>
@@ -73087,7 +73087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2260" s="0" t="n">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="2261" spans="1:10">
@@ -80950,7 +80950,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G2506" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H2506" s="1" t="n">
         <x:v>10</x:v>
@@ -80959,7 +80959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2506" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="2507" spans="1:10">
@@ -80982,7 +80982,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G2507" s="1" t="n">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="H2507" s="1" t="n">
         <x:v>13</x:v>
@@ -80991,7 +80991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2507" s="0" t="n">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="2508" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28377,13 +28377,13 @@
         <x:v>219</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="I863" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>791</x:v>
+        <x:v>790</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,19 +28403,19 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>884</x:v>
+        <x:v>880</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>728</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2427</x:v>
+        <x:v>2419</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,19 +28435,19 @@
         <x:v>736</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1212</x:v>
+        <x:v>1208</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>947</x:v>
+        <x:v>944</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>229</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3218</x:v>
+        <x:v>3209</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28368,7 +28368,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>328</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>790</x:v>
+        <x:v>789</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28432,7 +28432,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>736</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
         <x:v>1208</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3209</x:v>
+        <x:v>3208</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28371,10 +28371,10 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>219</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>34</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>789</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,10 +28403,10 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>880</x:v>
+        <x:v>878</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>725</x:v>
+        <x:v>723</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>193</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2419</x:v>
+        <x:v>2415</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,10 +28435,10 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1208</x:v>
+        <x:v>1205</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>944</x:v>
+        <x:v>941</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
         <x:v>227</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3208</x:v>
+        <x:v>3202</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -56371,7 +56371,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1738" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G1738" s="1" t="n">
         <x:v>13</x:v>
@@ -56383,7 +56383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1738" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="1739" spans="1:10">
@@ -56403,7 +56403,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F1739" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G1739" s="1" t="n">
         <x:v>21</x:v>
@@ -56415,7 +56415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1739" s="0" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="1740" spans="1:10">
@@ -56435,7 +56435,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1740" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G1740" s="1" t="n">
         <x:v>34</x:v>
@@ -56447,7 +56447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1740" s="0" t="n">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="1741" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2326,7 +2326,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
         <x:v>12</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2390,7 +2390,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>182</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
         <x:v>60</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>627</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2867,10 +2867,10 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="F66" s="1" t="n">
-        <x:v>234</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="G66" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="H66" s="1" t="n">
         <x:v>68</x:v>
@@ -2879,7 +2879,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>730</x:v>
+        <x:v>728</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
@@ -2899,10 +2899,10 @@
         <x:v>233</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>389</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>361</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
         <x:v>134</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1236</x:v>
+        <x:v>1234</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
@@ -21174,7 +21174,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G638" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H638" s="1" t="n">
         <x:v>0</x:v>
@@ -21183,7 +21183,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J638" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="639" spans="1:10">
@@ -21206,7 +21206,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G639" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="H639" s="1" t="n">
         <x:v>0</x:v>
@@ -21215,7 +21215,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J639" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="640" spans="1:10">
@@ -69363,7 +69363,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="F2144" s="1" t="n">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G2144" s="1" t="n">
         <x:v>166</x:v>
@@ -69375,7 +69375,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2144" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
     </x:row>
     <x:row r="2145" spans="1:10">
@@ -69395,7 +69395,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="F2145" s="1" t="n">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G2145" s="1" t="n">
         <x:v>224</x:v>
@@ -69407,7 +69407,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2145" s="0" t="n">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="2146" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>133</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>451</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>206</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>181</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>626</x:v>
+        <x:v>625</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -3382,7 +3382,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G82" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H82" s="1" t="n">
         <x:v>0</x:v>
@@ -3391,7 +3391,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J82" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:10">
@@ -3446,7 +3446,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="G84" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H84" s="1" t="n">
         <x:v>4</x:v>
@@ -3455,7 +3455,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J84" s="0" t="n">
-        <x:v>115</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:10">
@@ -20979,7 +20979,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="F632" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="G632" s="1" t="n">
         <x:v>171</x:v>
@@ -20991,7 +20991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J632" s="0" t="n">
-        <x:v>586</x:v>
+        <x:v>585</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:10">
@@ -21011,7 +21011,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="F633" s="1" t="n">
-        <x:v>314</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="G633" s="1" t="n">
         <x:v>274</x:v>
@@ -21023,7 +21023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>933</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">
@@ -28313,13 +28313,13 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="H861" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I861" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J861" s="0" t="n">
-        <x:v>390</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="862" spans="1:10">
@@ -28345,13 +28345,13 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="H862" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="I862" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J862" s="0" t="n">
-        <x:v>501</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="863" spans="1:10">
@@ -28371,7 +28371,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>327</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>218</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>787</x:v>
+        <x:v>786</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,19 +28403,19 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>878</x:v>
+        <x:v>875</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>723</x:v>
+        <x:v>721</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2415</x:v>
+        <x:v>2409</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,19 +28435,19 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1205</x:v>
+        <x:v>1201</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>941</x:v>
+        <x:v>939</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>227</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3202</x:v>
+        <x:v>3195</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -80694,7 +80694,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="G2498" s="1" t="n">
-        <x:v>105</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="H2498" s="1" t="n">
         <x:v>32</x:v>
@@ -80703,7 +80703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2498" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="2499" spans="1:10">
@@ -80726,7 +80726,7 @@
         <x:v>173</x:v>
       </x:c>
       <x:c r="G2499" s="1" t="n">
-        <x:v>148</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H2499" s="1" t="n">
         <x:v>41</x:v>
@@ -80735,7 +80735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2499" s="0" t="n">
-        <x:v>550</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="2500" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28374,7 +28374,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>34</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>786</x:v>
+        <x:v>785</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,10 +28403,10 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>875</x:v>
+        <x:v>874</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>721</x:v>
+        <x:v>720</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>192</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2409</x:v>
+        <x:v>2407</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,10 +28435,10 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1201</x:v>
+        <x:v>1200</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>939</x:v>
+        <x:v>937</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
         <x:v>226</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3195</x:v>
+        <x:v>3192</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28400,10 +28400,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>543</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>874</x:v>
+        <x:v>872</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>720</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2407</x:v>
+        <x:v>2404</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28432,10 +28432,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1200</x:v>
+        <x:v>1198</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>937</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3192</x:v>
+        <x:v>3189</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -28592,7 +28592,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E870" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
         <x:v>151</x:v>
@@ -28607,7 +28607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J870" s="0" t="n">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="871" spans="1:10">
@@ -28624,7 +28624,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E871" s="1" t="n">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
         <x:v>222</x:v>
@@ -28639,7 +28639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2323,7 +2323,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>62</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>48</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>175</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>205</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>181</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>625</x:v>
+        <x:v>624</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -20182,7 +20182,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="G607" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H607" s="1" t="n">
         <x:v>6</x:v>
@@ -20191,7 +20191,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J607" s="0" t="n">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="608" spans="1:10">
@@ -20214,7 +20214,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="G608" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H608" s="1" t="n">
         <x:v>8</x:v>
@@ -20223,7 +20223,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J608" s="0" t="n">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="609" spans="1:10">
@@ -28400,7 +28400,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
         <x:v>872</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2404</x:v>
+        <x:v>2405</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28432,7 +28432,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
         <x:v>1198</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3189</x:v>
+        <x:v>3190</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28569,13 +28569,13 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="H869" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="I869" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J869" s="0" t="n">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="870" spans="1:10">
@@ -28601,13 +28601,13 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="H870" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="I870" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J870" s="0" t="n">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="871" spans="1:10">
@@ -28633,13 +28633,13 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="H871" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I871" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>555</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">
@@ -29680,7 +29680,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
         <x:v>309</x:v>
@@ -29695,7 +29695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J904" s="0" t="n">
-        <x:v>902</x:v>
+        <x:v>903</x:v>
       </x:c>
     </x:row>
     <x:row r="905" spans="1:10">
@@ -29712,7 +29712,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E905" s="1" t="n">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
         <x:v>335</x:v>
@@ -29727,7 +29727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J905" s="0" t="n">
-        <x:v>988</x:v>
+        <x:v>989</x:v>
       </x:c>
     </x:row>
     <x:row r="906" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20278,7 +20278,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="G610" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H610" s="1" t="n">
         <x:v>9</x:v>
@@ -20287,7 +20287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J610" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="611" spans="1:10">
@@ -20310,7 +20310,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="G611" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H611" s="1" t="n">
         <x:v>9</x:v>
@@ -20319,7 +20319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J611" s="0" t="n">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="612" spans="1:10">
@@ -23001,13 +23001,13 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="H695" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I695" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J695" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="696" spans="1:10">
@@ -23033,13 +23033,13 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="H696" s="1" t="n">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I696" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J696" s="0" t="n">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="697" spans="1:10">
@@ -28371,7 +28371,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>326</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>217</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>785</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28435,7 +28435,7 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1198</x:v>
+        <x:v>1197</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>937</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3190</x:v>
+        <x:v>3189</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28406,7 +28406,7 @@
         <x:v>872</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>720</x:v>
+        <x:v>719</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>192</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2405</x:v>
+        <x:v>2404</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28438,7 +28438,7 @@
         <x:v>1197</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>937</x:v>
+        <x:v>936</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
         <x:v>226</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3189</x:v>
+        <x:v>3188</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20976,7 +20976,7 @@
         <x:v>53</x:v>
       </x:c>
       <x:c r="E632" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F632" s="1" t="n">
         <x:v>195</x:v>
@@ -20991,7 +20991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J632" s="0" t="n">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:10">
@@ -21008,7 +21008,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E633" s="1" t="n">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F633" s="1" t="n">
         <x:v>313</x:v>
@@ -21023,7 +21023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>932</x:v>
+        <x:v>933</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">
@@ -28368,7 +28368,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>325</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>784</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28432,7 +28432,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>735</x:v>
+        <x:v>734</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
         <x:v>1197</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3188</x:v>
+        <x:v>3187</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -80054,7 +80054,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2478" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2478" s="1" t="n">
         <x:v>1</x:v>
@@ -80063,7 +80063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2478" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2479" spans="1:10">
@@ -80086,7 +80086,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2479" s="1" t="n">
-        <x:v>0</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H2479" s="1" t="n">
         <x:v>1</x:v>
@@ -80095,7 +80095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2479" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2480" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28371,7 +28371,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>325</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>217</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>783</x:v>
+        <x:v>781</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28400,10 +28400,10 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E864" s="1" t="n">
-        <x:v>543</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>872</x:v>
+        <x:v>871</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>719</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2404</x:v>
+        <x:v>2402</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28432,10 +28432,10 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>734</x:v>
+        <x:v>733</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1197</x:v>
+        <x:v>1194</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>936</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3187</x:v>
+        <x:v>3183</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -29008,7 +29008,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>502</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>805</x:v>
@@ -29023,7 +29023,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>2312</x:v>
+        <x:v>2311</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
-        <x:v>951</x:v>
+        <x:v>950</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
         <x:v>1368</x:v>
@@ -29055,7 +29055,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>4060</x:v>
+        <x:v>4059</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29555,7 +29555,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="F900" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="G900" s="1" t="n">
         <x:v>47</x:v>
@@ -29567,7 +29567,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J900" s="0" t="n">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="901" spans="1:10">
@@ -29619,7 +29619,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="G902" s="1" t="n">
         <x:v>220</x:v>
@@ -29631,7 +29631,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J902" s="0" t="n">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
     </x:row>
     <x:row r="903" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20275,7 +20275,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="F610" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G610" s="1" t="n">
         <x:v>16</x:v>
@@ -20287,7 +20287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J610" s="0" t="n">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="611" spans="1:10">
@@ -20307,7 +20307,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="F611" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G611" s="1" t="n">
         <x:v>25</x:v>
@@ -20319,7 +20319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J611" s="0" t="n">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="612" spans="1:10">
@@ -20656,10 +20656,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E622" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F622" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="G622" s="1" t="n">
         <x:v>30</x:v>
@@ -20671,7 +20671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J622" s="0" t="n">
-        <x:v>114</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="623" spans="1:10">
@@ -20688,10 +20688,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E623" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F623" s="1" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="G623" s="1" t="n">
         <x:v>49</x:v>
@@ -20703,7 +20703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J623" s="0" t="n">
-        <x:v>199</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="624" spans="1:10">
@@ -20973,7 +20973,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D632" s="1" t="n">
-        <x:v>53</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E632" s="1" t="n">
         <x:v>107</x:v>
@@ -20991,7 +20991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J632" s="0" t="n">
-        <x:v>586</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:10">
@@ -21005,7 +21005,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D633" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E633" s="1" t="n">
         <x:v>179</x:v>
@@ -21023,7 +21023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>933</x:v>
+        <x:v>930</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">
@@ -21421,7 +21421,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D646" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E646" s="1" t="n">
         <x:v>11</x:v>
@@ -21439,7 +21439,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J646" s="0" t="n">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="647" spans="1:10">
@@ -21453,7 +21453,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D647" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E647" s="1" t="n">
         <x:v>12</x:v>
@@ -21471,7 +21471,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J647" s="0" t="n">
-        <x:v>101</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="648" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1945,13 +1945,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="H37" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="I37" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J37" s="0" t="n">
-        <x:v>176</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:10">
@@ -1968,22 +1968,22 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>137</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>155</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
-        <x:v>80</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I38" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>549</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -2000,22 +2000,22 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>196</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
-        <x:v>91</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="I39" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>725</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -2329,13 +2329,13 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="H49" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="I49" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>174</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2393,13 +2393,13 @@
         <x:v>181</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>624</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -2838,16 +2838,16 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="I65" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>506</x:v>
+        <x:v>503</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
@@ -2864,22 +2864,22 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E66" s="1" t="n">
-        <x:v>138</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F66" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="G66" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="H66" s="1" t="n">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="I66" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J66" s="0" t="n">
-        <x:v>728</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:10">
@@ -2896,22 +2896,22 @@
         <x:v>119</x:v>
       </x:c>
       <x:c r="E67" s="1" t="n">
-        <x:v>233</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="F67" s="1" t="n">
-        <x:v>388</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>360</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I67" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1234</x:v>
+        <x:v>1226</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
@@ -28406,7 +28406,7 @@
         <x:v>871</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>719</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>192</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2402</x:v>
+        <x:v>2401</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28438,7 +28438,7 @@
         <x:v>1194</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>936</x:v>
+        <x:v>935</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
         <x:v>226</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3183</x:v>
+        <x:v>3182</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -29209,13 +29209,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H889" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I889" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J889" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="890" spans="1:10">
@@ -29241,13 +29241,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="H890" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I890" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J890" s="0" t="n">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="891" spans="1:10">
@@ -79510,7 +79510,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G2461" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H2461" s="1" t="n">
         <x:v>1</x:v>
@@ -79519,7 +79519,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2461" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="2462" spans="1:10">
@@ -79542,7 +79542,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G2462" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H2462" s="1" t="n">
         <x:v>1</x:v>
@@ -79551,7 +79551,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2462" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2463" spans="1:10">
@@ -80406,7 +80406,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="G2489" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2489" s="1" t="n">
         <x:v>4</x:v>
@@ -80415,7 +80415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2489" s="0" t="n">
-        <x:v>53</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="2490" spans="1:10">
@@ -80438,7 +80438,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G2490" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H2490" s="1" t="n">
         <x:v>4</x:v>
@@ -80447,7 +80447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2490" s="0" t="n">
-        <x:v>69</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="2491" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1965,16 +1965,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>74</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>153</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>79</x:v>
@@ -1983,7 +1983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>544</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -1997,16 +1997,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>168</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>89</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>89</x:v>
@@ -2015,7 +2015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>719</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -2256,7 +2256,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E47" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F47" s="1" t="n">
         <x:v>26</x:v>
@@ -2271,7 +2271,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J47" s="0" t="n">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:10">
@@ -2288,7 +2288,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E48" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F48" s="1" t="n">
         <x:v>34</x:v>
@@ -2303,7 +2303,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J48" s="0" t="n">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:10">
@@ -2838,7 +2838,7 @@
         <x:v>155</x:v>
       </x:c>
       <x:c r="G65" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H65" s="1" t="n">
         <x:v>65</x:v>
@@ -2847,7 +2847,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J65" s="0" t="n">
-        <x:v>503</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:10">
@@ -2902,7 +2902,7 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="G67" s="1" t="n">
-        <x:v>357</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="H67" s="1" t="n">
         <x:v>132</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J67" s="0" t="n">
-        <x:v>1226</x:v>
+        <x:v>1225</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:10">
@@ -52624,13 +52624,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="E1621" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
         <x:v>101</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="H1621" s="1" t="n">
         <x:v>40</x:v>
@@ -52639,7 +52639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>353</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
@@ -52656,13 +52656,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E1622" s="1" t="n">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F1622" s="1" t="n">
         <x:v>134</x:v>
       </x:c>
       <x:c r="G1622" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="H1622" s="1" t="n">
         <x:v>49</x:v>
@@ -52671,7 +52671,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28371,7 +28371,7 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>323</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>217</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>781</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28435,7 +28435,7 @@
         <x:v>733</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1194</x:v>
+        <x:v>1193</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>935</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3182</x:v>
+        <x:v>3181</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -70195,7 +70195,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="F2170" s="1" t="n">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G2170" s="1" t="n">
         <x:v>111</x:v>
@@ -70207,7 +70207,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2170" s="0" t="n">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
     </x:row>
     <x:row r="2171" spans="1:10">
@@ -70227,7 +70227,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="F2171" s="1" t="n">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G2171" s="1" t="n">
         <x:v>174</x:v>
@@ -70239,7 +70239,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2171" s="0" t="n">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="2172" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28022,7 +28022,7 @@
         <x:v>1062</x:v>
       </x:c>
       <x:c r="G852" s="1" t="n">
-        <x:v>915</x:v>
+        <x:v>914</x:v>
       </x:c>
       <x:c r="H852" s="1" t="n">
         <x:v>410</x:v>
@@ -28031,7 +28031,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J852" s="0" t="n">
-        <x:v>3104</x:v>
+        <x:v>3103</x:v>
       </x:c>
     </x:row>
     <x:row r="853" spans="1:10">
@@ -28054,7 +28054,7 @@
         <x:v>1354</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>1143</x:v>
+        <x:v>1142</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>478</x:v>
@@ -28063,7 +28063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>4008</x:v>
+        <x:v>4007</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">
@@ -28368,7 +28368,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E863" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
         <x:v>322</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>780</x:v>
+        <x:v>779</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28432,7 +28432,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E865" s="1" t="n">
-        <x:v>733</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
         <x:v>1193</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3181</x:v>
+        <x:v>3180</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -80918,7 +80918,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="G2505" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H2505" s="1" t="n">
         <x:v>3</x:v>
@@ -80927,7 +80927,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2505" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2506" spans="1:10">
@@ -80982,7 +80982,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G2507" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="H2507" s="1" t="n">
         <x:v>13</x:v>
@@ -80991,7 +80991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2507" s="0" t="n">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="2508" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28371,7 +28371,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>322</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>217</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>779</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,19 +28403,19 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>871</x:v>
+        <x:v>870</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>718</x:v>
+        <x:v>717</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>192</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2401</x:v>
+        <x:v>2398</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,19 +28435,19 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1193</x:v>
+        <x:v>1191</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>935</x:v>
+        <x:v>934</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3180</x:v>
+        <x:v>3176</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -28982,7 +28982,7 @@
         <x:v>563</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>150</x:v>
@@ -28991,7 +28991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J882" s="0" t="n">
-        <x:v>1748</x:v>
+        <x:v>1749</x:v>
       </x:c>
     </x:row>
     <x:row r="883" spans="1:10">
@@ -29046,7 +29046,7 @@
         <x:v>1368</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>982</x:v>
+        <x:v>983</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
         <x:v>440</x:v>
@@ -29055,7 +29055,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>4059</x:v>
+        <x:v>4060</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28982,7 +28982,7 @@
         <x:v>563</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="H882" s="1" t="n">
         <x:v>150</x:v>
@@ -28991,7 +28991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J882" s="0" t="n">
-        <x:v>1749</x:v>
+        <x:v>1750</x:v>
       </x:c>
     </x:row>
     <x:row r="883" spans="1:10">
@@ -29046,7 +29046,7 @@
         <x:v>1368</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
-        <x:v>983</x:v>
+        <x:v>984</x:v>
       </x:c>
       <x:c r="H884" s="1" t="n">
         <x:v>440</x:v>
@@ -29055,7 +29055,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>4060</x:v>
+        <x:v>4061</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -65846,7 +65846,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G2034" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H2034" s="1" t="n">
         <x:v>0</x:v>
@@ -65855,7 +65855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2034" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="2035" spans="1:10">
@@ -65910,7 +65910,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="G2036" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2036" s="1" t="n">
         <x:v>0</x:v>
@@ -65919,7 +65919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2036" s="0" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2037" spans="1:10">
@@ -80304,7 +80304,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E2486" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F2486" s="1" t="n">
         <x:v>71</x:v>
@@ -80319,7 +80319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2486" s="0" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="2487" spans="1:10">
@@ -80336,7 +80336,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E2487" s="1" t="n">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F2487" s="1" t="n">
         <x:v>98</x:v>
@@ -80351,7 +80351,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2487" s="0" t="n">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="2488" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20083,7 +20083,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="F604" s="1" t="n">
-        <x:v>226</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="G604" s="1" t="n">
         <x:v>254</x:v>
@@ -20095,7 +20095,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J604" s="0" t="n">
-        <x:v>781</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="605" spans="1:10">
@@ -20115,7 +20115,7 @@
         <x:v>165</x:v>
       </x:c>
       <x:c r="F605" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G605" s="1" t="n">
         <x:v>309</x:v>
@@ -20127,7 +20127,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J605" s="0" t="n">
-        <x:v>1069</x:v>
+        <x:v>1068</x:v>
       </x:c>
     </x:row>
     <x:row r="606" spans="1:10">
@@ -24982,7 +24982,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G757" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H757" s="1" t="n">
         <x:v>0</x:v>
@@ -24991,7 +24991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J757" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="758" spans="1:10">
@@ -25014,7 +25014,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G758" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H758" s="1" t="n">
         <x:v>0</x:v>
@@ -25023,7 +25023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J758" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="759" spans="1:10">
@@ -52208,13 +52208,13 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1608" s="1" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F1608" s="1" t="n">
         <x:v>46</x:v>
       </x:c>
       <x:c r="G1608" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H1608" s="1" t="n">
         <x:v>10</x:v>
@@ -52223,7 +52223,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1608" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="1609" spans="1:10">
@@ -52272,13 +52272,13 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E1610" s="1" t="n">
-        <x:v>118</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F1610" s="1" t="n">
         <x:v>179</x:v>
       </x:c>
       <x:c r="G1610" s="1" t="n">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="H1610" s="1" t="n">
         <x:v>52</x:v>
@@ -52287,7 +52287,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1610" s="0" t="n">
-        <x:v>593</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="1611" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2352,13 +2352,13 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E50" s="1" t="n">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>143</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
         <x:v>48</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2384,13 +2384,13 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>135</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>181</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
         <x:v>59</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>623</x:v>
+        <x:v>620</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -28403,7 +28403,7 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>870</x:v>
+        <x:v>869</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>717</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2398</x:v>
+        <x:v>2397</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,7 +28435,7 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1191</x:v>
+        <x:v>1190</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>934</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3176</x:v>
+        <x:v>3175</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -52720,7 +52720,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1624" s="1" t="n">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="F1624" s="1" t="n">
         <x:v>12</x:v>
@@ -52735,7 +52735,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1624" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="1625" spans="1:10">
@@ -52752,7 +52752,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1625" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F1625" s="1" t="n">
         <x:v>24</x:v>
@@ -52767,7 +52767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1625" s="0" t="n">
-        <x:v>73</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="1626" spans="1:10">
@@ -53072,7 +53072,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1635" s="1" t="n">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="F1635" s="1" t="n">
         <x:v>126</x:v>
@@ -53087,7 +53087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1635" s="0" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="1636" spans="1:10">
@@ -53104,7 +53104,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E1636" s="1" t="n">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F1636" s="1" t="n">
         <x:v>201</x:v>
@@ -53119,7 +53119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20953,13 +20953,13 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="H631" s="1" t="n">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I631" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J631" s="0" t="n">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="632" spans="1:10">
@@ -20979,7 +20979,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="F632" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="G632" s="1" t="n">
         <x:v>171</x:v>
@@ -20991,7 +20991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J632" s="0" t="n">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="633" spans="1:10">
@@ -21011,19 +21011,19 @@
         <x:v>179</x:v>
       </x:c>
       <x:c r="F633" s="1" t="n">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="G633" s="1" t="n">
         <x:v>274</x:v>
       </x:c>
       <x:c r="H633" s="1" t="n">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I633" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J633" s="0" t="n">
-        <x:v>930</x:v>
+        <x:v>932</x:v>
       </x:c>
     </x:row>
     <x:row r="634" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1968,7 +1968,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E38" s="1" t="n">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="F38" s="1" t="n">
         <x:v>137</x:v>
@@ -1983,7 +1983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -2000,7 +2000,7 @@
         <x:v>167</x:v>
       </x:c>
       <x:c r="E39" s="1" t="n">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F39" s="1" t="n">
         <x:v>180</x:v>
@@ -2015,7 +2015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -28371,7 +28371,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>321</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>217</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>778</x:v>
+        <x:v>777</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28406,16 +28406,16 @@
         <x:v>869</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>717</x:v>
+        <x:v>713</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>191</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2397</x:v>
+        <x:v>2391</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,19 +28435,19 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1190</x:v>
+        <x:v>1189</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>934</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>225</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3175</x:v>
+        <x:v>3168</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -29008,7 +29008,7 @@
         <x:v>159</x:v>
       </x:c>
       <x:c r="E883" s="1" t="n">
-        <x:v>501</x:v>
+        <x:v>503</x:v>
       </x:c>
       <x:c r="F883" s="1" t="n">
         <x:v>805</x:v>
@@ -29023,7 +29023,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J883" s="0" t="n">
-        <x:v>2311</x:v>
+        <x:v>2313</x:v>
       </x:c>
     </x:row>
     <x:row r="884" spans="1:10">
@@ -29040,7 +29040,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="E884" s="1" t="n">
-        <x:v>950</x:v>
+        <x:v>952</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
         <x:v>1368</x:v>
@@ -29055,7 +29055,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>4061</x:v>
+        <x:v>4063</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28371,7 +28371,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="F863" s="1" t="n">
-        <x:v>320</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
         <x:v>217</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>777</x:v>
+        <x:v>775</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,19 +28403,19 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>869</x:v>
+        <x:v>868</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>713</x:v>
+        <x:v>710</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2391</x:v>
+        <x:v>2386</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,19 +28435,19 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1189</x:v>
+        <x:v>1186</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>927</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>223</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3168</x:v>
+        <x:v>3161</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -28979,7 +28979,7 @@
         <x:v>449</x:v>
       </x:c>
       <x:c r="F882" s="1" t="n">
-        <x:v>563</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="G882" s="1" t="n">
         <x:v>429</x:v>
@@ -28991,7 +28991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J882" s="0" t="n">
-        <x:v>1750</x:v>
+        <x:v>1749</x:v>
       </x:c>
     </x:row>
     <x:row r="883" spans="1:10">
@@ -29043,7 +29043,7 @@
         <x:v>952</x:v>
       </x:c>
       <x:c r="F884" s="1" t="n">
-        <x:v>1368</x:v>
+        <x:v>1367</x:v>
       </x:c>
       <x:c r="G884" s="1" t="n">
         <x:v>984</x:v>
@@ -29055,7 +29055,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J884" s="0" t="n">
-        <x:v>4063</x:v>
+        <x:v>4062</x:v>
       </x:c>
     </x:row>
     <x:row r="885" spans="1:10">
@@ -29494,7 +29494,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G898" s="1" t="n">
-        <x:v>71</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H898" s="1" t="n">
         <x:v>39</x:v>
@@ -29503,7 +29503,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J898" s="0" t="n">
-        <x:v>240</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="899" spans="1:10">
@@ -29526,7 +29526,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="G899" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="H899" s="1" t="n">
         <x:v>39</x:v>
@@ -29535,7 +29535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J899" s="0" t="n">
-        <x:v>244</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="900" spans="1:10">
@@ -29680,7 +29680,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E904" s="1" t="n">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="F904" s="1" t="n">
         <x:v>309</x:v>
@@ -29695,7 +29695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J904" s="0" t="n">
-        <x:v>903</x:v>
+        <x:v>904</x:v>
       </x:c>
     </x:row>
     <x:row r="905" spans="1:10">
@@ -29712,7 +29712,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E905" s="1" t="n">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="F905" s="1" t="n">
         <x:v>335</x:v>
@@ -29727,7 +29727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J905" s="0" t="n">
-        <x:v>989</x:v>
+        <x:v>990</x:v>
       </x:c>
     </x:row>
     <x:row r="906" spans="1:10">
@@ -67030,7 +67030,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="G2071" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H2071" s="1" t="n">
         <x:v>3</x:v>
@@ -67039,7 +67039,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2071" s="0" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="2072" spans="1:10">
@@ -67062,7 +67062,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G2072" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H2072" s="1" t="n">
         <x:v>3</x:v>
@@ -67071,7 +67071,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2072" s="0" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="2073" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -52208,10 +52208,10 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="E1608" s="1" t="n">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1608" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G1608" s="1" t="n">
         <x:v>32</x:v>
@@ -52223,7 +52223,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1608" s="0" t="n">
-        <x:v>141</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="1609" spans="1:10">
@@ -52237,25 +52237,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1609" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E1609" s="1" t="n">
-        <x:v>96</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="F1609" s="1" t="n">
-        <x:v>133</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G1609" s="1" t="n">
-        <x:v>139</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="H1609" s="1" t="n">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I1609" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1609" s="0" t="n">
-        <x:v>450</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="1610" spans="1:10">
@@ -52269,25 +52269,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1610" s="1" t="n">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E1610" s="1" t="n">
-        <x:v>117</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="F1610" s="1" t="n">
-        <x:v>179</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="G1610" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="H1610" s="1" t="n">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="I1610" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1610" s="0" t="n">
-        <x:v>591</x:v>
+        <x:v>619</x:v>
       </x:c>
     </x:row>
     <x:row r="1611" spans="1:10">
@@ -52310,7 +52310,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="G1611" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="H1611" s="1" t="n">
         <x:v>0</x:v>
@@ -52319,7 +52319,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1611" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="1612" spans="1:10">
@@ -52374,7 +52374,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="G1613" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="H1613" s="1" t="n">
         <x:v>7</x:v>
@@ -52383,7 +52383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1613" s="0" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="1614" spans="1:10">
@@ -52403,7 +52403,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F1614" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G1614" s="1" t="n">
         <x:v>3</x:v>
@@ -52415,7 +52415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1614" s="0" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="1615" spans="1:10">
@@ -52467,7 +52467,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F1616" s="1" t="n">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1616" s="1" t="n">
         <x:v>16</x:v>
@@ -52479,7 +52479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1616" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="1617" spans="1:10">
@@ -52525,7 +52525,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1618" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1618" s="1" t="n">
         <x:v>13</x:v>
@@ -52543,7 +52543,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1618" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="1619" spans="1:10">
@@ -52557,7 +52557,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1619" s="1" t="n">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E1619" s="1" t="n">
         <x:v>16</x:v>
@@ -52575,7 +52575,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1619" s="0" t="n">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="1620" spans="1:10">
@@ -52592,10 +52592,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="E1620" s="1" t="n">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F1620" s="1" t="n">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="G1620" s="1" t="n">
         <x:v>33</x:v>
@@ -52607,7 +52607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -52621,25 +52621,25 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1621" s="1" t="n">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1621" s="1" t="n">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="H1621" s="1" t="n">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I1621" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>355</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
@@ -52653,25 +52653,25 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1622" s="1" t="n">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1622" s="1" t="n">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F1622" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="G1622" s="1" t="n">
-        <x:v>136</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="H1622" s="1" t="n">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I1622" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1622" s="0" t="n">
-        <x:v>466</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="1623" spans="1:10">
@@ -52691,7 +52691,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="F1623" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G1623" s="1" t="n">
         <x:v>6</x:v>
@@ -52703,7 +52703,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1623" s="0" t="n">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="1624" spans="1:10">
@@ -52755,7 +52755,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="F1625" s="1" t="n">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G1625" s="1" t="n">
         <x:v>23</x:v>
@@ -52767,7 +52767,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1625" s="0" t="n">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="1626" spans="1:10">
@@ -53037,7 +53037,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="D1634" s="1" t="n">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E1634" s="1" t="n">
         <x:v>57</x:v>
@@ -53055,7 +53055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1634" s="0" t="n">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="1635" spans="1:10">
@@ -53069,7 +53069,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1635" s="1" t="n">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E1635" s="1" t="n">
         <x:v>91</x:v>
@@ -53078,7 +53078,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="G1635" s="1" t="n">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="H1635" s="1" t="n">
         <x:v>45</x:v>
@@ -53087,7 +53087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1635" s="0" t="n">
-        <x:v>404</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="1636" spans="1:10">
@@ -53101,7 +53101,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1636" s="1" t="n">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="E1636" s="1" t="n">
         <x:v>148</x:v>
@@ -53110,7 +53110,7 @@
         <x:v>201</x:v>
       </x:c>
       <x:c r="G1636" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="H1636" s="1" t="n">
         <x:v>71</x:v>
@@ -53119,7 +53119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1636" s="0" t="n">
-        <x:v>690</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="1637" spans="1:10">
@@ -53168,13 +53168,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1638" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1638" s="1" t="n">
         <x:v>6</x:v>
       </x:c>
       <x:c r="G1638" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="H1638" s="1" t="n">
         <x:v>0</x:v>
@@ -53200,13 +53200,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1639" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="F1639" s="1" t="n">
         <x:v>10</x:v>
       </x:c>
       <x:c r="G1639" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="H1639" s="1" t="n">
         <x:v>1</x:v>
@@ -53616,7 +53616,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E1652" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1652" s="1" t="n">
         <x:v>7</x:v>
@@ -53625,13 +53625,13 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H1652" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1652" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1652" s="0" t="n">
-        <x:v>27</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="1653" spans="1:10">
@@ -53648,7 +53648,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E1653" s="1" t="n">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="F1653" s="1" t="n">
         <x:v>10</x:v>
@@ -53657,13 +53657,13 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="H1653" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="I1653" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1653" s="0" t="n">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="1654" spans="1:10">
@@ -53718,7 +53718,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G1655" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H1655" s="1" t="n">
         <x:v>2</x:v>
@@ -53727,7 +53727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1655" s="0" t="n">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="1656" spans="1:10">
@@ -53750,7 +53750,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G1656" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H1656" s="1" t="n">
         <x:v>2</x:v>
@@ -53759,7 +53759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1656" s="0" t="n">
-        <x:v>44</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="1657" spans="1:10">
@@ -81715,7 +81715,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="F2530" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2530" s="1" t="n">
         <x:v>17</x:v>
@@ -81727,7 +81727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2530" s="0" t="n">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="2531" spans="1:10">
@@ -81747,7 +81747,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2531" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G2531" s="1" t="n">
         <x:v>18</x:v>
@@ -81759,7 +81759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2531" s="0" t="n">
-        <x:v>58</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="2532" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -29072,7 +29072,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>16</x:v>
@@ -29087,7 +29087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29136,7 +29136,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
         <x:v>70</x:v>
@@ -29151,7 +29151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>208</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -1974,7 +1974,7 @@
         <x:v>137</x:v>
       </x:c>
       <x:c r="G38" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="H38" s="1" t="n">
         <x:v>79</x:v>
@@ -1983,7 +1983,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J38" s="0" t="n">
-        <x:v>543</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:10">
@@ -2006,7 +2006,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="G39" s="1" t="n">
-        <x:v>193</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="H39" s="1" t="n">
         <x:v>89</x:v>
@@ -2015,7 +2015,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J39" s="0" t="n">
-        <x:v>718</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:10">
@@ -29072,7 +29072,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E885" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F885" s="1" t="n">
         <x:v>16</x:v>
@@ -29087,7 +29087,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J885" s="0" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="886" spans="1:10">
@@ -29136,7 +29136,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E887" s="1" t="n">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F887" s="1" t="n">
         <x:v>70</x:v>
@@ -29151,7 +29151,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J887" s="0" t="n">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="888" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -20464,7 +20464,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E616" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="F616" s="1" t="n">
         <x:v>140</x:v>
@@ -20479,7 +20479,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J616" s="0" t="n">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="617" spans="1:10">
@@ -20496,7 +20496,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="E617" s="1" t="n">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F617" s="1" t="n">
         <x:v>195</x:v>
@@ -20511,7 +20511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">
@@ -21526,7 +21526,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G649" s="1" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H649" s="1" t="n">
         <x:v>5</x:v>
@@ -21535,7 +21535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J649" s="0" t="n">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="650" spans="1:10">
@@ -21558,7 +21558,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="G650" s="1" t="n">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H650" s="1" t="n">
         <x:v>6</x:v>
@@ -21567,7 +21567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J650" s="0" t="n">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="651" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28374,7 +28374,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
         <x:v>34</x:v>
@@ -28383,7 +28383,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28406,7 +28406,7 @@
         <x:v>868</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
-        <x:v>710</x:v>
+        <x:v>712</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
         <x:v>188</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2386</x:v>
+        <x:v>2388</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28438,7 +28438,7 @@
         <x:v>1186</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>927</x:v>
+        <x:v>930</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
         <x:v>222</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3161</x:v>
+        <x:v>3164</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -53517,7 +53517,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1649" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1649" s="1" t="n">
         <x:v>7</x:v>
@@ -53535,7 +53535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1649" s="0" t="n">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="1650" spans="1:10">
@@ -53549,7 +53549,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1650" s="1" t="n">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E1650" s="1" t="n">
         <x:v>9</x:v>
@@ -53567,7 +53567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1650" s="0" t="n">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="1651" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2320,7 +2320,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E49" s="1" t="n">
-        <x:v>37</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
         <x:v>61</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>173</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2358,16 +2358,16 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
-        <x:v>132</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H50" s="1" t="n">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="I50" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>447</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2384,22 +2384,22 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="E51" s="1" t="n">
-        <x:v>134</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
         <x:v>203</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
-        <x:v>180</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="H51" s="1" t="n">
-        <x:v>59</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I51" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>620</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -3286,7 +3286,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G79" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H79" s="1" t="n">
         <x:v>2</x:v>
@@ -3295,7 +3295,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J79" s="0" t="n">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:10">
@@ -3350,7 +3350,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="G81" s="1" t="n">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H81" s="1" t="n">
         <x:v>10</x:v>
@@ -3359,7 +3359,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J81" s="0" t="n">
-        <x:v>111</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:10">
@@ -29584,7 +29584,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E901" s="1" t="n">
-        <x:v>106</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F901" s="1" t="n">
         <x:v>233</x:v>
@@ -29599,7 +29599,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J901" s="0" t="n">
-        <x:v>618</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="902" spans="1:10">
@@ -29616,7 +29616,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E902" s="1" t="n">
-        <x:v>154</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F902" s="1" t="n">
         <x:v>300</x:v>
@@ -29631,7 +29631,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="J902" s="0" t="n">
-        <x:v>803</x:v>
+        <x:v>802</x:v>
       </x:c>
     </x:row>
     <x:row r="903" spans="1:10">
@@ -53517,7 +53517,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1649" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1649" s="1" t="n">
         <x:v>7</x:v>
@@ -53535,7 +53535,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1649" s="0" t="n">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="1650" spans="1:10">
@@ -53549,7 +53549,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1650" s="1" t="n">
-        <x:v>7</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1650" s="1" t="n">
         <x:v>9</x:v>
@@ -53567,7 +53567,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1650" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="1651" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -3213,7 +3213,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D77" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E77" s="1" t="n">
         <x:v>6</x:v>
@@ -3231,7 +3231,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J77" s="0" t="n">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:10">
@@ -3245,7 +3245,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D78" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="E78" s="1" t="n">
         <x:v>6</x:v>
@@ -3263,7 +3263,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J78" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2323,7 +2323,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>48</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>172</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2355,7 +2355,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>130</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>444</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>178</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>616</x:v>
+        <x:v>614</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2323,7 +2323,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="F49" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G49" s="1" t="n">
         <x:v>48</x:v>
@@ -2335,7 +2335,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J49" s="0" t="n">
-        <x:v>171</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>201</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>178</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>614</x:v>
+        <x:v>613</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">
@@ -28374,16 +28374,16 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="G863" s="1" t="n">
-        <x:v>218</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="H863" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I863" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J863" s="0" t="n">
-        <x:v>776</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="864" spans="1:10">
@@ -28403,19 +28403,19 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>868</x:v>
+        <x:v>866</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>712</x:v>
       </x:c>
       <x:c r="H864" s="1" t="n">
-        <x:v>188</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="I864" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2388</x:v>
+        <x:v>2384</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,19 +28435,19 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1186</x:v>
+        <x:v>1184</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
-        <x:v>930</x:v>
+        <x:v>929</x:v>
       </x:c>
       <x:c r="H865" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="I865" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3164</x:v>
+        <x:v>3158</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -29686,7 +29686,7 @@
         <x:v>309</x:v>
       </x:c>
       <x:c r="G904" s="1" t="n">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="H904" s="1" t="n">
         <x:v>41</x:v>
@@ -29695,7 +29695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J904" s="0" t="n">
-        <x:v>904</x:v>
+        <x:v>905</x:v>
       </x:c>
     </x:row>
     <x:row r="905" spans="1:10">
@@ -29718,7 +29718,7 @@
         <x:v>335</x:v>
       </x:c>
       <x:c r="G905" s="1" t="n">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="H905" s="1" t="n">
         <x:v>45</x:v>
@@ -29727,7 +29727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J905" s="0" t="n">
-        <x:v>990</x:v>
+        <x:v>991</x:v>
       </x:c>
     </x:row>
     <x:row r="906" spans="1:10">
@@ -80598,7 +80598,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G2495" s="1" t="n">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H2495" s="1" t="n">
         <x:v>13</x:v>
@@ -80607,7 +80607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2495" s="0" t="n">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="2496" spans="1:10">
@@ -80630,7 +80630,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="G2496" s="1" t="n">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H2496" s="1" t="n">
         <x:v>14</x:v>
@@ -80639,7 +80639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2496" s="0" t="n">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="2497" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -25869,7 +25869,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D785" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E785" s="1" t="n">
         <x:v>9</x:v>
@@ -25887,7 +25887,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J785" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="786" spans="1:10">
@@ -25901,7 +25901,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D786" s="1" t="n">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E786" s="1" t="n">
         <x:v>9</x:v>
@@ -25919,7 +25919,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J786" s="0" t="n">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="787" spans="1:10">
@@ -81712,7 +81712,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2530" s="1" t="n">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="F2530" s="1" t="n">
         <x:v>12</x:v>
@@ -81727,7 +81727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2530" s="0" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="2531" spans="1:10">
@@ -81744,7 +81744,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2531" s="1" t="n">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F2531" s="1" t="n">
         <x:v>12</x:v>
@@ -81759,7 +81759,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2531" s="0" t="n">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="2532" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -9808,7 +9808,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E283" s="1" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="F283" s="1" t="n">
         <x:v>3</x:v>
@@ -9823,7 +9823,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J283" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:10">
@@ -9840,7 +9840,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="E284" s="1" t="n">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="F284" s="1" t="n">
         <x:v>4</x:v>
@@ -9855,7 +9855,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J284" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:10">
@@ -20435,7 +20435,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F615" s="1" t="n">
-        <x:v>55</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="G615" s="1" t="n">
         <x:v>41</x:v>
@@ -20447,7 +20447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J615" s="0" t="n">
-        <x:v>142</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="616" spans="1:10">
@@ -20499,7 +20499,7 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="F617" s="1" t="n">
-        <x:v>195</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="G617" s="1" t="n">
         <x:v>165</x:v>
@@ -20511,7 +20511,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J617" s="0" t="n">
-        <x:v>588</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
     <x:row r="618" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28595,7 +28595,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="F870" s="1" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G870" s="1" t="n">
         <x:v>99</x:v>
@@ -28607,7 +28607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J870" s="0" t="n">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="871" spans="1:10">
@@ -28627,7 +28627,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="F871" s="1" t="n">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="G871" s="1" t="n">
         <x:v>167</x:v>
@@ -28639,7 +28639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J871" s="0" t="n">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="872" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -59853,7 +59853,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D1847" s="1" t="n">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E1847" s="1" t="n">
         <x:v>21</x:v>
@@ -59871,7 +59871,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1847" s="0" t="n">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="1848" spans="1:10">
@@ -59885,7 +59885,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D1848" s="1" t="n">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1848" s="1" t="n">
         <x:v>29</x:v>
@@ -59903,7 +59903,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1848" s="0" t="n">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="1849" spans="1:10">
@@ -59920,10 +59920,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="E1849" s="1" t="n">
-        <x:v>41</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F1849" s="1" t="n">
-        <x:v>93</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G1849" s="1" t="n">
         <x:v>63</x:v>
@@ -59935,7 +59935,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1849" s="0" t="n">
-        <x:v>218</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="1850" spans="1:10">
@@ -59984,10 +59984,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="E1851" s="1" t="n">
-        <x:v>203</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="F1851" s="1" t="n">
-        <x:v>419</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="G1851" s="1" t="n">
         <x:v>309</x:v>
@@ -59999,7 +59999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1851" s="0" t="n">
-        <x:v>1069</x:v>
+        <x:v>1067</x:v>
       </x:c>
     </x:row>
     <x:row r="1852" spans="1:10">
@@ -60947,7 +60947,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="F1881" s="1" t="n">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="G1881" s="1" t="n">
         <x:v>21</x:v>
@@ -60959,7 +60959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1881" s="0" t="n">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="1882" spans="1:10">
@@ -61011,7 +61011,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="F1883" s="1" t="n">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G1883" s="1" t="n">
         <x:v>116</x:v>
@@ -61023,7 +61023,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1883" s="0" t="n">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="1884" spans="1:10">
@@ -61040,7 +61040,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E1884" s="1" t="n">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F1884" s="1" t="n">
         <x:v>15</x:v>
@@ -61055,7 +61055,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1884" s="0" t="n">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="1885" spans="1:10">
@@ -61104,7 +61104,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E1886" s="1" t="n">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="F1886" s="1" t="n">
         <x:v>177</x:v>
@@ -61119,7 +61119,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1886" s="0" t="n">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="1887" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -28403,7 +28403,7 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="F864" s="1" t="n">
-        <x:v>866</x:v>
+        <x:v>867</x:v>
       </x:c>
       <x:c r="G864" s="1" t="n">
         <x:v>712</x:v>
@@ -28415,7 +28415,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J864" s="0" t="n">
-        <x:v>2384</x:v>
+        <x:v>2385</x:v>
       </x:c>
     </x:row>
     <x:row r="865" spans="1:10">
@@ -28435,7 +28435,7 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="F865" s="1" t="n">
-        <x:v>1184</x:v>
+        <x:v>1185</x:v>
       </x:c>
       <x:c r="G865" s="1" t="n">
         <x:v>929</x:v>
@@ -28447,7 +28447,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J865" s="0" t="n">
-        <x:v>3158</x:v>
+        <x:v>3159</x:v>
       </x:c>
     </x:row>
     <x:row r="866" spans="1:10">
@@ -65683,7 +65683,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="F2029" s="1" t="n">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G2029" s="1" t="n">
         <x:v>116</x:v>
@@ -65695,7 +65695,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2029" s="0" t="n">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="2030" spans="1:10">
@@ -65715,7 +65715,7 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="F2030" s="1" t="n">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G2030" s="1" t="n">
         <x:v>141</x:v>
@@ -65727,7 +65727,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2030" s="0" t="n">
-        <x:v>403</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
     <x:row r="2031" spans="1:10">
@@ -80950,7 +80950,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="G2506" s="1" t="n">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="H2506" s="1" t="n">
         <x:v>10</x:v>
@@ -80959,7 +80959,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2506" s="0" t="n">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="2507" spans="1:10">
@@ -80982,7 +80982,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="G2507" s="1" t="n">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="H2507" s="1" t="n">
         <x:v>13</x:v>
@@ -80991,7 +80991,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J2507" s="0" t="n">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="2508" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -27990,7 +27990,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="G851" s="1" t="n">
-        <x:v>228</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="H851" s="1" t="n">
         <x:v>68</x:v>
@@ -27999,7 +27999,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J851" s="0" t="n">
-        <x:v>904</x:v>
+        <x:v>903</x:v>
       </x:c>
     </x:row>
     <x:row r="852" spans="1:10">
@@ -28054,7 +28054,7 @@
         <x:v>1354</x:v>
       </x:c>
       <x:c r="G853" s="1" t="n">
-        <x:v>1142</x:v>
+        <x:v>1141</x:v>
       </x:c>
       <x:c r="H853" s="1" t="n">
         <x:v>478</x:v>
@@ -28063,7 +28063,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J853" s="0" t="n">
-        <x:v>4007</x:v>
+        <x:v>4006</x:v>
       </x:c>
     </x:row>
     <x:row r="854" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -2355,7 +2355,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="F50" s="1" t="n">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G50" s="1" t="n">
         <x:v>130</x:v>
@@ -2367,7 +2367,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J50" s="0" t="n">
-        <x:v>443</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:10">
@@ -2387,7 +2387,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="F51" s="1" t="n">
-        <x:v>200</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G51" s="1" t="n">
         <x:v>178</x:v>
@@ -2399,7 +2399,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J51" s="0" t="n">
-        <x:v>613</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:10">

--- a/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
+++ b/store/arrests/ArrestsGroupAByAgeSexCountyDownloadData_ReportYear_2022.xlsx
@@ -52595,7 +52595,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="F1620" s="1" t="n">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G1620" s="1" t="n">
         <x:v>33</x:v>
@@ -52607,7 +52607,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1620" s="0" t="n">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="1621" spans="1:10">
@@ -52627,7 +52627,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="F1621" s="1" t="n">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="G1621" s="1" t="n">
         <x:v>108</x:v>
@@ -52639,7 +52639,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="J1621" s="0" t="n">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="1622" spans="1:10">
